--- a/Code/Results/Cases/Case_5_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.55042966222433</v>
+        <v>8.658781320990508</v>
       </c>
       <c r="C2">
-        <v>7.06732898573861</v>
+        <v>5.776349252250968</v>
       </c>
       <c r="D2">
-        <v>4.830833554455225</v>
+        <v>5.210700280086564</v>
       </c>
       <c r="E2">
-        <v>14.63354963626559</v>
+        <v>12.80913531481467</v>
       </c>
       <c r="F2">
-        <v>20.17302888769548</v>
+        <v>25.85055980118697</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.2762963231083</v>
+        <v>7.881343650347793</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.48788501870344</v>
+        <v>13.37592750253274</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.34167632744701</v>
+        <v>23.12837045790585</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.76402741774387</v>
+        <v>8.375255007433289</v>
       </c>
       <c r="C3">
-        <v>6.839687697917979</v>
+        <v>5.677267269457206</v>
       </c>
       <c r="D3">
-        <v>4.719364476001833</v>
+        <v>5.168341004403166</v>
       </c>
       <c r="E3">
-        <v>13.77257762736253</v>
+        <v>12.59790147270122</v>
       </c>
       <c r="F3">
-        <v>19.77950345377406</v>
+        <v>25.85822056369299</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.69714050488467</v>
+        <v>7.690156342032529</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.56513704743536</v>
+        <v>13.20665415481008</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.26211713429419</v>
+        <v>23.18463731653483</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.25428244669545</v>
+        <v>8.197753954047911</v>
       </c>
       <c r="C4">
-        <v>6.695795280471612</v>
+        <v>5.614898613607278</v>
       </c>
       <c r="D4">
-        <v>4.649058330816543</v>
+        <v>5.141725974095148</v>
       </c>
       <c r="E4">
-        <v>13.22959457534269</v>
+        <v>12.47089036794712</v>
       </c>
       <c r="F4">
-        <v>19.55325529768121</v>
+        <v>25.86990825973225</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.32488808747239</v>
+        <v>7.57160353157494</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.96903030217224</v>
+        <v>13.10492469694338</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.22780252182933</v>
+        <v>23.2243900530789</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03979452856843</v>
+        <v>8.124679888736626</v>
       </c>
       <c r="C5">
-        <v>6.636169869218881</v>
+        <v>5.589116164458923</v>
       </c>
       <c r="D5">
-        <v>4.619961468835325</v>
+        <v>5.130731789762076</v>
       </c>
       <c r="E5">
-        <v>13.00493082421918</v>
+        <v>12.41988153139805</v>
       </c>
       <c r="F5">
-        <v>19.4649309325671</v>
+        <v>25.87642538715114</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.16907700142108</v>
+        <v>7.523071554954678</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.71866471131912</v>
+        <v>13.06407271075921</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.21734366993993</v>
+        <v>23.24189489959304</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.00377070976151</v>
+        <v>8.112504868418458</v>
       </c>
       <c r="C6">
-        <v>6.626210945390462</v>
+        <v>5.584813414568559</v>
       </c>
       <c r="D6">
-        <v>4.61510366328169</v>
+        <v>5.128897375259002</v>
       </c>
       <c r="E6">
-        <v>12.96742786691076</v>
+        <v>12.41145892354471</v>
       </c>
       <c r="F6">
-        <v>19.45049862367888</v>
+        <v>25.87761343013088</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.14295857776921</v>
+        <v>7.515001680833175</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.67664156909573</v>
+        <v>13.05732713711795</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.2158159727183</v>
+        <v>23.24488029575637</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.25141716302634</v>
+        <v>8.196771289259445</v>
       </c>
       <c r="C7">
-        <v>6.694995084709906</v>
+        <v>5.614552362320956</v>
       </c>
       <c r="D7">
-        <v>4.648667698052128</v>
+        <v>5.141578297866685</v>
       </c>
       <c r="E7">
-        <v>13.22657810248598</v>
+        <v>12.47019931532172</v>
       </c>
       <c r="F7">
-        <v>19.55204844139047</v>
+        <v>25.86998905223752</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.32280331977301</v>
+        <v>7.570949809122583</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.96568395520396</v>
+        <v>13.10437124483398</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.22764737426525</v>
+        <v>23.22462084931497</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.28485563781973</v>
+        <v>8.561797887944978</v>
       </c>
       <c r="C8">
-        <v>6.98972028917741</v>
+        <v>5.742514597091821</v>
       </c>
       <c r="D8">
-        <v>4.792798595470014</v>
+        <v>5.196223074784291</v>
       </c>
       <c r="E8">
-        <v>14.33977497510118</v>
+        <v>12.73578857916102</v>
       </c>
       <c r="F8">
-        <v>20.03415743668223</v>
+        <v>25.85175090478648</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.08009602391866</v>
+        <v>7.815705683912501</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.17583541032722</v>
+        <v>13.31713419112213</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.31115053662365</v>
+        <v>23.14668902793693</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.09862180326742</v>
+        <v>9.245829622695178</v>
       </c>
       <c r="C9">
-        <v>7.533177741277419</v>
+        <v>5.980520859281286</v>
       </c>
       <c r="D9">
-        <v>5.059763106116169</v>
+        <v>5.298395032029184</v>
       </c>
       <c r="E9">
-        <v>16.41961930052101</v>
+        <v>13.27465665702027</v>
       </c>
       <c r="F9">
-        <v>21.10076344275574</v>
+        <v>25.8714380582451</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.43078822790811</v>
+        <v>8.36248194742536</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.31616636534184</v>
+        <v>13.74965334870995</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.59581515029744</v>
+        <v>23.03530757062607</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.30285736250818</v>
+        <v>9.723405655030964</v>
       </c>
       <c r="C10">
-        <v>7.909409179114432</v>
+        <v>6.146528865376228</v>
       </c>
       <c r="D10">
-        <v>5.245274364846077</v>
+        <v>5.370192279400364</v>
       </c>
       <c r="E10">
-        <v>18.04170013824018</v>
+        <v>13.67717495384454</v>
       </c>
       <c r="F10">
-        <v>21.95669293115851</v>
+        <v>25.91969059850067</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.33926422709695</v>
+        <v>8.810338483946481</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.74976965719565</v>
+        <v>14.07375893708159</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.88594359337705</v>
+        <v>22.97892586175813</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.82326610973683</v>
+        <v>9.934245163249114</v>
       </c>
       <c r="C11">
-        <v>8.075245960623679</v>
+        <v>6.219938267475892</v>
       </c>
       <c r="D11">
-        <v>5.327166780556461</v>
+        <v>5.402097980419982</v>
       </c>
       <c r="E11">
-        <v>18.75068953050574</v>
+        <v>13.86081283664133</v>
       </c>
       <c r="F11">
-        <v>22.36136287213728</v>
+        <v>25.94895079484213</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.73417573414894</v>
+        <v>9.005148249071246</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.37264178110449</v>
+        <v>14.22194387869303</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.03696305901559</v>
+        <v>22.95883672461181</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.016432919147</v>
+        <v>10.01309129694614</v>
       </c>
       <c r="C12">
-        <v>8.137260267682001</v>
+        <v>6.247418621791349</v>
       </c>
       <c r="D12">
-        <v>5.357804020102205</v>
+        <v>5.414067340635403</v>
       </c>
       <c r="E12">
-        <v>19.01513299032811</v>
+        <v>13.9303542369837</v>
       </c>
       <c r="F12">
-        <v>22.51676649993556</v>
+        <v>25.96107758436981</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.8810772968579</v>
+        <v>9.077603665385272</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.60437710238103</v>
+        <v>14.2781129025758</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.0969991079703</v>
+        <v>22.95203116339203</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97500378322752</v>
+        <v>9.996155650796108</v>
       </c>
       <c r="C13">
-        <v>8.123939541534767</v>
+        <v>6.241514616605431</v>
       </c>
       <c r="D13">
-        <v>5.351222574238102</v>
+        <v>5.411494597515066</v>
       </c>
       <c r="E13">
-        <v>18.95835776102224</v>
+        <v>13.91537833504099</v>
       </c>
       <c r="F13">
-        <v>22.48320183548539</v>
+        <v>25.95841940169098</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.84955690998553</v>
+        <v>9.062058029598115</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.55465122902411</v>
+        <v>14.2660143010042</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.08394088031171</v>
+        <v>22.95346117032851</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83923598769523</v>
+        <v>9.940752191662829</v>
       </c>
       <c r="C14">
-        <v>8.080363737216235</v>
+        <v>6.222205552482025</v>
       </c>
       <c r="D14">
-        <v>5.329694890441529</v>
+        <v>5.40308498706329</v>
       </c>
       <c r="E14">
-        <v>18.77252558657144</v>
+        <v>13.8665344328488</v>
       </c>
       <c r="F14">
-        <v>22.37410484598012</v>
+        <v>25.94992752843198</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.74631436572075</v>
+        <v>9.011135716467042</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.39178913609947</v>
+        <v>14.22656414310509</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.04184456018373</v>
+        <v>22.95826074623444</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.75556758248165</v>
+        <v>9.906684496817613</v>
       </c>
       <c r="C15">
-        <v>8.053569611179466</v>
+        <v>6.210336325532352</v>
       </c>
       <c r="D15">
-        <v>5.316459500171407</v>
+        <v>5.397919071126801</v>
       </c>
       <c r="E15">
-        <v>18.6581763091813</v>
+        <v>13.83661418771472</v>
       </c>
       <c r="F15">
-        <v>22.3075605911392</v>
+        <v>25.94486215114586</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.68273121556351</v>
+        <v>8.979772236542786</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.29149564622467</v>
+        <v>14.20240534055911</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.01643348013223</v>
+        <v>22.96130510202122</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.26829928644146</v>
+        <v>9.709491410553369</v>
       </c>
       <c r="C16">
-        <v>7.898462582534502</v>
+        <v>6.141687657596211</v>
       </c>
       <c r="D16">
-        <v>5.239870970366441</v>
+        <v>5.368091622568288</v>
       </c>
       <c r="E16">
-        <v>17.99479441112068</v>
+        <v>13.66517802889422</v>
       </c>
       <c r="F16">
-        <v>21.9305514991744</v>
+        <v>25.91792510725516</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.31308595263089</v>
+        <v>8.797424843315085</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.70848072902344</v>
+        <v>14.06408520191274</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.87646677324903</v>
+        <v>22.98035080792571</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.96238392368399</v>
+        <v>9.586823531943283</v>
       </c>
       <c r="C17">
-        <v>7.801932546402907</v>
+        <v>6.099022932730827</v>
       </c>
       <c r="D17">
-        <v>5.192235884770567</v>
+        <v>5.349597116111422</v>
       </c>
       <c r="E17">
-        <v>17.58050976881162</v>
+        <v>13.5600895144196</v>
       </c>
       <c r="F17">
-        <v>21.70316074023318</v>
+        <v>25.90326948173604</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.08161347830717</v>
+        <v>8.68325127934512</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.34337282994393</v>
+        <v>13.97938382242232</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.79555808059595</v>
+        <v>22.99346035155035</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.78384736732825</v>
+        <v>9.515668429300131</v>
       </c>
       <c r="C18">
-        <v>7.745911864728022</v>
+        <v>6.074285690959202</v>
       </c>
       <c r="D18">
-        <v>5.164603123866412</v>
+        <v>5.338888715160186</v>
       </c>
       <c r="E18">
-        <v>17.33949557543153</v>
+        <v>13.49969961181544</v>
       </c>
       <c r="F18">
-        <v>21.57381405093935</v>
+        <v>25.89552834469657</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.94674818047569</v>
+        <v>8.616743432059135</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.13061112144233</v>
+        <v>13.93073931780899</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.75080724875414</v>
+        <v>23.00152375059897</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.72295334069171</v>
+        <v>9.491475855453208</v>
       </c>
       <c r="C19">
-        <v>7.72685919956239</v>
+        <v>6.065876616345777</v>
       </c>
       <c r="D19">
-        <v>5.155207368590239</v>
+        <v>5.335250990556798</v>
       </c>
       <c r="E19">
-        <v>17.25742021606619</v>
+        <v>13.47926425408714</v>
       </c>
       <c r="F19">
-        <v>21.53026841815475</v>
+        <v>25.89302567945685</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.90078848127424</v>
+        <v>8.594082095036832</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.05809718370562</v>
+        <v>13.91428337447596</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.73595863982487</v>
+        <v>23.00434365105831</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.99521610377794</v>
+        <v>9.599944361180043</v>
       </c>
       <c r="C20">
-        <v>7.81226015871357</v>
+        <v>6.103585230038512</v>
       </c>
       <c r="D20">
-        <v>5.197331082098389</v>
+        <v>5.351573250129425</v>
       </c>
       <c r="E20">
-        <v>17.62489264808119</v>
+        <v>13.57127130132177</v>
       </c>
       <c r="F20">
-        <v>21.72721786639999</v>
+        <v>25.90475838130907</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.10643305606545</v>
+        <v>8.695492248921731</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.38252443842502</v>
+        <v>13.98839320958075</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.80398532002248</v>
+        <v>22.99201065747775</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.8792197996707</v>
+        <v>9.957053047487605</v>
       </c>
       <c r="C21">
-        <v>8.09318443698209</v>
+        <v>6.227885843333577</v>
       </c>
       <c r="D21">
-        <v>5.336028341227167</v>
+        <v>5.40555818210701</v>
       </c>
       <c r="E21">
-        <v>18.827217487896</v>
+        <v>13.8808816055409</v>
       </c>
       <c r="F21">
-        <v>22.40609081531098</v>
+        <v>25.95239343580325</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.77671090872265</v>
+        <v>9.026128748589986</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.43973718003768</v>
+        <v>14.23815054532703</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.0541311100047</v>
+        <v>22.9568292178036</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.4342532719326</v>
+        <v>10.18462139694665</v>
       </c>
       <c r="C22">
-        <v>8.272206049300381</v>
+        <v>6.307262494278623</v>
       </c>
       <c r="D22">
-        <v>5.424491529350916</v>
+        <v>5.440182122186847</v>
       </c>
       <c r="E22">
-        <v>19.589550924702</v>
+        <v>14.08320718466615</v>
       </c>
       <c r="F22">
-        <v>22.86237381134893</v>
+        <v>25.98962303251562</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.19937644615636</v>
+        <v>9.234543444498094</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.10664001980933</v>
+        <v>14.40167592904986</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.2342660096885</v>
+        <v>22.93851023583637</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.14008526419945</v>
+        <v>10.06371841312128</v>
       </c>
       <c r="C23">
-        <v>8.177083304559416</v>
+        <v>6.265072680778518</v>
       </c>
       <c r="D23">
-        <v>5.377481234101687</v>
+        <v>5.421764219497466</v>
       </c>
       <c r="E23">
-        <v>19.18478175452985</v>
+        <v>13.97524823009217</v>
       </c>
       <c r="F23">
-        <v>22.61770467863119</v>
+        <v>25.96919681400868</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.9751996601779</v>
+        <v>9.124020240527276</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.75287366618755</v>
+        <v>14.31438959959525</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.13656571069403</v>
+        <v>22.94785904648465</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.98038096884741</v>
+        <v>9.59401439633959</v>
       </c>
       <c r="C24">
-        <v>7.807592676583653</v>
+        <v>6.101523264427033</v>
       </c>
       <c r="D24">
-        <v>5.195028310733961</v>
+        <v>5.35068007529529</v>
       </c>
       <c r="E24">
-        <v>17.60483599219149</v>
+        <v>13.56621592603087</v>
       </c>
       <c r="F24">
-        <v>21.71633732815161</v>
+        <v>25.90408311703188</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.09521769600676</v>
+        <v>8.689960807615769</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.36483289878632</v>
+        <v>13.98431990134794</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.80016987699499</v>
+        <v>22.99266442414336</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.63061534680837</v>
+        <v>9.064799265140069</v>
       </c>
       <c r="C25">
-        <v>7.39008038348445</v>
+        <v>5.917621717070555</v>
       </c>
       <c r="D25">
-        <v>4.989337204670918</v>
+        <v>5.271312511361546</v>
       </c>
       <c r="E25">
-        <v>15.85791178509598</v>
+        <v>13.12740206836689</v>
       </c>
       <c r="F25">
-        <v>20.79938444951088</v>
+        <v>25.86017267072859</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.08002718411509</v>
+        <v>8.18988142953916</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.76179773172908</v>
+        <v>13.6313163832448</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.50508965758629</v>
+        <v>23.06098219567858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.658781320990508</v>
+        <v>12.55042966222437</v>
       </c>
       <c r="C2">
-        <v>5.776349252250968</v>
+        <v>7.067328985738383</v>
       </c>
       <c r="D2">
-        <v>5.210700280086564</v>
+        <v>4.830833554455214</v>
       </c>
       <c r="E2">
-        <v>12.80913531481467</v>
+        <v>14.63354963626559</v>
       </c>
       <c r="F2">
-        <v>25.85055980118697</v>
+        <v>20.17302888769546</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.881343650347793</v>
+        <v>11.27629632310832</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.37592750253274</v>
+        <v>14.48788501870342</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.12837045790585</v>
+        <v>16.34167632744698</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.375255007433289</v>
+        <v>11.76402741774393</v>
       </c>
       <c r="C3">
-        <v>5.677267269457206</v>
+        <v>6.839687697917654</v>
       </c>
       <c r="D3">
-        <v>5.168341004403166</v>
+        <v>4.71936447600194</v>
       </c>
       <c r="E3">
-        <v>12.59790147270122</v>
+        <v>13.77257762736255</v>
       </c>
       <c r="F3">
-        <v>25.85822056369299</v>
+        <v>19.77950345377414</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.690156342032529</v>
+        <v>10.6971405048846</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.20665415481008</v>
+        <v>13.56513704743532</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.18463731653483</v>
+        <v>16.26211713429432</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.197753954047911</v>
+        <v>11.25428244669539</v>
       </c>
       <c r="C4">
-        <v>5.614898613607278</v>
+        <v>6.695795280471524</v>
       </c>
       <c r="D4">
-        <v>5.141725974095148</v>
+        <v>4.649058330816421</v>
       </c>
       <c r="E4">
-        <v>12.47089036794712</v>
+        <v>13.22959457534269</v>
       </c>
       <c r="F4">
-        <v>25.86990825973225</v>
+        <v>19.55325529768112</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.57160353157494</v>
+        <v>10.32488808747237</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.10492469694338</v>
+        <v>12.96903030217227</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.2243900530789</v>
+        <v>16.22780252182919</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.124679888736626</v>
+        <v>11.03979452856847</v>
       </c>
       <c r="C5">
-        <v>5.589116164458923</v>
+        <v>6.63616986921889</v>
       </c>
       <c r="D5">
-        <v>5.130731789762076</v>
+        <v>4.619961468835338</v>
       </c>
       <c r="E5">
-        <v>12.41988153139805</v>
+        <v>13.00493082421916</v>
       </c>
       <c r="F5">
-        <v>25.87642538715114</v>
+        <v>19.46493093256708</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.523071554954678</v>
+        <v>10.16907700142111</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.06407271075921</v>
+        <v>12.71866471131913</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.24189489959304</v>
+        <v>16.21734366993991</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.112504868418458</v>
+        <v>11.0037707097616</v>
       </c>
       <c r="C6">
-        <v>5.584813414568559</v>
+        <v>6.626210945390492</v>
       </c>
       <c r="D6">
-        <v>5.128897375259002</v>
+        <v>4.615103663281703</v>
       </c>
       <c r="E6">
-        <v>12.41145892354471</v>
+        <v>12.96742786691081</v>
       </c>
       <c r="F6">
-        <v>25.87761343013088</v>
+        <v>19.45049862367862</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.515001680833175</v>
+        <v>10.14295857776927</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.05732713711795</v>
+        <v>12.67664156909576</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.24488029575637</v>
+        <v>16.21581597271808</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.196771289259445</v>
+        <v>11.2514171630263</v>
       </c>
       <c r="C7">
-        <v>5.614552362320956</v>
+        <v>6.694995084709919</v>
       </c>
       <c r="D7">
-        <v>5.141578297866685</v>
+        <v>4.648667698052185</v>
       </c>
       <c r="E7">
-        <v>12.47019931532172</v>
+        <v>13.22657810248598</v>
       </c>
       <c r="F7">
-        <v>25.86998905223752</v>
+        <v>19.55204844139051</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.570949809122583</v>
+        <v>10.32280331977299</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.10437124483398</v>
+        <v>12.96568395520391</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.22462084931497</v>
+        <v>16.22764737426532</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.561797887944978</v>
+        <v>12.28485563781981</v>
       </c>
       <c r="C8">
-        <v>5.742514597091821</v>
+        <v>6.989720289177606</v>
       </c>
       <c r="D8">
-        <v>5.196223074784291</v>
+        <v>4.792798595470004</v>
       </c>
       <c r="E8">
-        <v>12.73578857916102</v>
+        <v>14.33977497510119</v>
       </c>
       <c r="F8">
-        <v>25.85175090478648</v>
+        <v>20.03415743668207</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.815705683912501</v>
+        <v>11.08009602391875</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.31713419112213</v>
+        <v>14.17583541032726</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.14668902793693</v>
+        <v>16.31115053662349</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.245829622695178</v>
+        <v>14.09862180326749</v>
       </c>
       <c r="C9">
-        <v>5.980520859281286</v>
+        <v>7.533177741277407</v>
       </c>
       <c r="D9">
-        <v>5.298395032029184</v>
+        <v>5.05976310611629</v>
       </c>
       <c r="E9">
-        <v>13.27465665702027</v>
+        <v>16.419619300521</v>
       </c>
       <c r="F9">
-        <v>25.8714380582451</v>
+        <v>21.10076344275564</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.36248194742536</v>
+        <v>12.43078822790809</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.74965334870995</v>
+        <v>16.31616636534181</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.03530757062607</v>
+        <v>16.59581515029739</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.723405655030964</v>
+        <v>15.30285736250822</v>
       </c>
       <c r="C10">
-        <v>6.146528865376228</v>
+        <v>7.909409179114505</v>
       </c>
       <c r="D10">
-        <v>5.370192279400364</v>
+        <v>5.245274364846026</v>
       </c>
       <c r="E10">
-        <v>13.67717495384454</v>
+        <v>18.04170013824017</v>
       </c>
       <c r="F10">
-        <v>25.91969059850067</v>
+        <v>21.95669293115844</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.810338483946481</v>
+        <v>13.339264227097</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.07375893708159</v>
+        <v>17.74976965719565</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.97892586175813</v>
+        <v>16.88594359337695</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.934245163249114</v>
+        <v>15.8232661097368</v>
       </c>
       <c r="C11">
-        <v>6.219938267475892</v>
+        <v>8.07524596062361</v>
       </c>
       <c r="D11">
-        <v>5.402097980419982</v>
+        <v>5.3271667805565</v>
       </c>
       <c r="E11">
-        <v>13.86081283664133</v>
+        <v>18.75068953050575</v>
       </c>
       <c r="F11">
-        <v>25.94895079484213</v>
+        <v>22.36136287213728</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.005148249071246</v>
+        <v>13.73417573414895</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.22194387869303</v>
+        <v>18.37264178110449</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.95883672461181</v>
+        <v>17.03696305901562</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.01309129694614</v>
+        <v>16.01643291914692</v>
       </c>
       <c r="C12">
-        <v>6.247418621791349</v>
+        <v>8.137260267681997</v>
       </c>
       <c r="D12">
-        <v>5.414067340635403</v>
+        <v>5.357804020102201</v>
       </c>
       <c r="E12">
-        <v>13.9303542369837</v>
+        <v>19.01513299032813</v>
       </c>
       <c r="F12">
-        <v>25.96107758436981</v>
+        <v>22.51676649993559</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.077603665385272</v>
+        <v>13.88107729685783</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.2781129025758</v>
+        <v>18.60437710238101</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.95203116339203</v>
+        <v>17.09699910797035</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.996155650796108</v>
+        <v>15.97500378322756</v>
       </c>
       <c r="C13">
-        <v>6.241514616605431</v>
+        <v>8.123939541534556</v>
       </c>
       <c r="D13">
-        <v>5.411494597515066</v>
+        <v>5.351222574238045</v>
       </c>
       <c r="E13">
-        <v>13.91537833504099</v>
+        <v>18.95835776102222</v>
       </c>
       <c r="F13">
-        <v>25.95841940169098</v>
+        <v>22.48320183548546</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.062058029598115</v>
+        <v>13.84955690998556</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.2660143010042</v>
+        <v>18.55465122902411</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.95346117032851</v>
+        <v>17.08394088031179</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.940752191662829</v>
+        <v>15.83923598769519</v>
       </c>
       <c r="C14">
-        <v>6.222205552482025</v>
+        <v>8.080363737216317</v>
       </c>
       <c r="D14">
-        <v>5.40308498706329</v>
+        <v>5.329694890441575</v>
       </c>
       <c r="E14">
-        <v>13.8665344328488</v>
+        <v>18.77252558657135</v>
       </c>
       <c r="F14">
-        <v>25.94992752843198</v>
+        <v>22.37410484598024</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.011135716467042</v>
+        <v>13.74631436572069</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.22656414310509</v>
+        <v>18.3917891360994</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.95826074623444</v>
+        <v>17.04184456018391</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.906684496817613</v>
+        <v>15.75556758248165</v>
       </c>
       <c r="C15">
-        <v>6.210336325532352</v>
+        <v>8.053569611179356</v>
       </c>
       <c r="D15">
-        <v>5.397919071126801</v>
+        <v>5.316459500171461</v>
       </c>
       <c r="E15">
-        <v>13.83661418771472</v>
+        <v>18.6581763091813</v>
       </c>
       <c r="F15">
-        <v>25.94486215114586</v>
+        <v>22.30756059113921</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.979772236542786</v>
+        <v>13.6827312155635</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.20240534055911</v>
+        <v>18.29149564622466</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.96130510202122</v>
+        <v>17.01643348013226</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.709491410553369</v>
+        <v>15.26829928644144</v>
       </c>
       <c r="C16">
-        <v>6.141687657596211</v>
+        <v>7.898462582534584</v>
       </c>
       <c r="D16">
-        <v>5.368091622568288</v>
+        <v>5.239870970366316</v>
       </c>
       <c r="E16">
-        <v>13.66517802889422</v>
+        <v>17.99479441112067</v>
       </c>
       <c r="F16">
-        <v>25.91792510725516</v>
+        <v>21.93055149917443</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.797424843315085</v>
+        <v>13.3130859526309</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.06408520191274</v>
+        <v>17.70848072902342</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.98035080792571</v>
+        <v>16.87646677324905</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.586823531943283</v>
+        <v>14.96238392368402</v>
       </c>
       <c r="C17">
-        <v>6.099022932730827</v>
+        <v>7.801932546402954</v>
       </c>
       <c r="D17">
-        <v>5.349597116111422</v>
+        <v>5.192235884770719</v>
       </c>
       <c r="E17">
-        <v>13.5600895144196</v>
+        <v>17.58050976881161</v>
       </c>
       <c r="F17">
-        <v>25.90326948173604</v>
+        <v>21.70316074023316</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.68325127934512</v>
+        <v>13.08161347830717</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.97938382242232</v>
+        <v>17.34337282994391</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.99346035155035</v>
+        <v>16.79555808059593</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.515668429300131</v>
+        <v>14.78384736732826</v>
       </c>
       <c r="C18">
-        <v>6.074285690959202</v>
+        <v>7.74591186472813</v>
       </c>
       <c r="D18">
-        <v>5.338888715160186</v>
+        <v>5.164603123866199</v>
       </c>
       <c r="E18">
-        <v>13.49969961181544</v>
+        <v>17.3394955754315</v>
       </c>
       <c r="F18">
-        <v>25.89552834469657</v>
+        <v>21.57381405093935</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.616743432059135</v>
+        <v>12.94674818047571</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.93073931780899</v>
+        <v>17.13061112144235</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.00152375059897</v>
+        <v>16.75080724875409</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.491475855453208</v>
+        <v>14.72295334069168</v>
       </c>
       <c r="C19">
-        <v>6.065876616345777</v>
+        <v>7.726859199562412</v>
       </c>
       <c r="D19">
-        <v>5.335250990556798</v>
+        <v>5.15520736859025</v>
       </c>
       <c r="E19">
-        <v>13.47926425408714</v>
+        <v>17.25742021606615</v>
       </c>
       <c r="F19">
-        <v>25.89302567945685</v>
+        <v>21.53026841815476</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.594082095036832</v>
+        <v>12.90078848127426</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.91428337447596</v>
+        <v>17.05809718370562</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.00434365105831</v>
+        <v>16.73595863982489</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.599944361180043</v>
+        <v>14.99521610377797</v>
       </c>
       <c r="C20">
-        <v>6.103585230038512</v>
+        <v>7.812260158713771</v>
       </c>
       <c r="D20">
-        <v>5.351573250129425</v>
+        <v>5.197331082098446</v>
       </c>
       <c r="E20">
-        <v>13.57127130132177</v>
+        <v>17.62489264808119</v>
       </c>
       <c r="F20">
-        <v>25.90475838130907</v>
+        <v>21.72721786639987</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.695492248921731</v>
+        <v>13.10643305606554</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.98839320958075</v>
+        <v>17.38252443842507</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.99201065747775</v>
+        <v>16.80398532002233</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.957053047487605</v>
+        <v>15.87921979967062</v>
       </c>
       <c r="C21">
-        <v>6.227885843333577</v>
+        <v>8.093184436982204</v>
       </c>
       <c r="D21">
-        <v>5.40555818210701</v>
+        <v>5.336028341227129</v>
       </c>
       <c r="E21">
-        <v>13.8808816055409</v>
+        <v>18.82721748789601</v>
       </c>
       <c r="F21">
-        <v>25.95239343580325</v>
+        <v>22.40609081531091</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.026128748589986</v>
+        <v>13.77671090872267</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.23815054532703</v>
+        <v>18.43973718003769</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.9568292178036</v>
+        <v>17.05413111000463</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.18462139694665</v>
+        <v>16.43425327193257</v>
       </c>
       <c r="C22">
-        <v>6.307262494278623</v>
+        <v>8.27220604930065</v>
       </c>
       <c r="D22">
-        <v>5.440182122186847</v>
+        <v>5.424491529350978</v>
       </c>
       <c r="E22">
-        <v>14.08320718466615</v>
+        <v>19.58955092470202</v>
       </c>
       <c r="F22">
-        <v>25.98962303251562</v>
+        <v>22.86237381134879</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.234543444498094</v>
+        <v>14.19937644615639</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.40167592904986</v>
+        <v>19.10664001980938</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.93851023583637</v>
+        <v>17.2342660096884</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.06371841312128</v>
+        <v>16.1400852641994</v>
       </c>
       <c r="C23">
-        <v>6.265072680778518</v>
+        <v>8.177083304559584</v>
       </c>
       <c r="D23">
-        <v>5.421764219497466</v>
+        <v>5.37748123410167</v>
       </c>
       <c r="E23">
-        <v>13.97524823009217</v>
+        <v>19.18478175452988</v>
       </c>
       <c r="F23">
-        <v>25.96919681400868</v>
+        <v>22.6177046786312</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.124020240527276</v>
+        <v>13.97519966017789</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.31438959959525</v>
+        <v>18.75287366618756</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.94785904648465</v>
+        <v>17.13656571069402</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.59401439633959</v>
+        <v>14.98038096884737</v>
       </c>
       <c r="C24">
-        <v>6.101523264427033</v>
+        <v>7.807592676583937</v>
       </c>
       <c r="D24">
-        <v>5.35068007529529</v>
+        <v>5.195028310733797</v>
       </c>
       <c r="E24">
-        <v>13.56621592603087</v>
+        <v>17.60483599219146</v>
       </c>
       <c r="F24">
-        <v>25.90408311703188</v>
+        <v>21.71633732815159</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.689960807615769</v>
+        <v>13.0952176960068</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.98431990134794</v>
+        <v>17.36483289878632</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.99266442414336</v>
+        <v>16.8001698769949</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.064799265140069</v>
+        <v>13.63061534680843</v>
       </c>
       <c r="C25">
-        <v>5.917621717070555</v>
+        <v>7.39008038348444</v>
       </c>
       <c r="D25">
-        <v>5.271312511361546</v>
+        <v>4.989337204671025</v>
       </c>
       <c r="E25">
-        <v>13.12740206836689</v>
+        <v>15.85791178509599</v>
       </c>
       <c r="F25">
-        <v>25.86017267072859</v>
+        <v>20.79938444951086</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.18988142953916</v>
+        <v>12.08002718411511</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.6313163832448</v>
+        <v>15.76179773172909</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.06098219567858</v>
+        <v>16.50508965758633</v>
       </c>
     </row>
   </sheetData>
